--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Comp-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Comp-Itgb3.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.524235333333333</v>
+        <v>1.277653333333333</v>
       </c>
       <c r="H2">
-        <v>4.572706</v>
+        <v>3.83296</v>
       </c>
       <c r="I2">
-        <v>0.04286319827073885</v>
+        <v>0.03565942841870452</v>
       </c>
       <c r="J2">
-        <v>0.04286319827073886</v>
+        <v>0.03565942841870452</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N2">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O2">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P2">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q2">
-        <v>10.07546737530111</v>
+        <v>7.808699889422221</v>
       </c>
       <c r="R2">
-        <v>90.67920637771</v>
+        <v>70.27829900479999</v>
       </c>
       <c r="S2">
-        <v>0.02812433619613082</v>
+        <v>0.02161501546139831</v>
       </c>
       <c r="T2">
-        <v>0.02812433619613083</v>
+        <v>0.02161501546139831</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.524235333333333</v>
+        <v>1.277653333333333</v>
       </c>
       <c r="H3">
-        <v>4.572706</v>
+        <v>3.83296</v>
       </c>
       <c r="I3">
-        <v>0.04286319827073885</v>
+        <v>0.03565942841870452</v>
       </c>
       <c r="J3">
-        <v>0.04286319827073886</v>
+        <v>0.03565942841870452</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>8.262912</v>
       </c>
       <c r="O3">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P3">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q3">
-        <v>4.198207475541333</v>
+        <v>3.519045686613333</v>
       </c>
       <c r="R3">
-        <v>37.783867279872</v>
+        <v>31.67141117952</v>
       </c>
       <c r="S3">
-        <v>0.01171874157944017</v>
+        <v>0.009740959186887428</v>
       </c>
       <c r="T3">
-        <v>0.01171874157944018</v>
+        <v>0.00974095918688743</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.524235333333333</v>
+        <v>1.277653333333333</v>
       </c>
       <c r="H4">
-        <v>4.572706</v>
+        <v>3.83296</v>
       </c>
       <c r="I4">
-        <v>0.04286319827073885</v>
+        <v>0.03565942841870452</v>
       </c>
       <c r="J4">
-        <v>0.04286319827073886</v>
+        <v>0.03565942841870452</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N4">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O4">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P4">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q4">
-        <v>0.3494822660895556</v>
+        <v>0.7262679831466667</v>
       </c>
       <c r="R4">
-        <v>3.145340394806</v>
+        <v>6.536411848319999</v>
       </c>
       <c r="S4">
-        <v>0.0009755335787382832</v>
+        <v>0.002010359458954096</v>
       </c>
       <c r="T4">
-        <v>0.0009755335787382834</v>
+        <v>0.002010359458954096</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.524235333333333</v>
+        <v>1.277653333333333</v>
       </c>
       <c r="H5">
-        <v>4.572706</v>
+        <v>3.83296</v>
       </c>
       <c r="I5">
-        <v>0.04286319827073885</v>
+        <v>0.03565942841870452</v>
       </c>
       <c r="J5">
-        <v>0.04286319827073886</v>
+        <v>0.03565942841870452</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N5">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O5">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P5">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q5">
-        <v>0.4049613837522222</v>
+        <v>0.4713471830044444</v>
       </c>
       <c r="R5">
-        <v>3.64465245377</v>
+        <v>4.24212464704</v>
       </c>
       <c r="S5">
-        <v>0.001130396206831792</v>
+        <v>0.00130472124586689</v>
       </c>
       <c r="T5">
-        <v>0.001130396206831792</v>
+        <v>0.00130472124586689</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1.524235333333333</v>
+        <v>1.277653333333333</v>
       </c>
       <c r="H6">
-        <v>4.572706</v>
+        <v>3.83296</v>
       </c>
       <c r="I6">
-        <v>0.04286319827073885</v>
+        <v>0.03565942841870452</v>
       </c>
       <c r="J6">
-        <v>0.04286319827073886</v>
+        <v>0.03565942841870452</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N6">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O6">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P6">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q6">
-        <v>0.327506349132</v>
+        <v>0.3570623699911111</v>
       </c>
       <c r="R6">
-        <v>2.947557142188</v>
+        <v>3.21356132992</v>
       </c>
       <c r="S6">
-        <v>0.000914190709597776</v>
+        <v>0.0009883730655977933</v>
       </c>
       <c r="T6">
-        <v>0.0009141907095977763</v>
+        <v>0.0009883730655977935</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>33.45753233333333</v>
+        <v>33.45753233333334</v>
       </c>
       <c r="H7">
         <v>100.372597</v>
       </c>
       <c r="I7">
-        <v>0.9408631401537662</v>
+        <v>0.9338029715731383</v>
       </c>
       <c r="J7">
-        <v>0.9408631401537663</v>
+        <v>0.9338029715731384</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N7">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O7">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P7">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q7">
-        <v>221.1602553165995</v>
+        <v>204.4841290008039</v>
       </c>
       <c r="R7">
-        <v>1990.442297849395</v>
+        <v>1840.357161007235</v>
       </c>
       <c r="S7">
-        <v>0.6173396371659913</v>
+        <v>0.5660260571609675</v>
       </c>
       <c r="T7">
-        <v>0.6173396371659915</v>
+        <v>0.5660260571609674</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>33.45753233333333</v>
+        <v>33.45753233333334</v>
       </c>
       <c r="H8">
         <v>100.372597</v>
       </c>
       <c r="I8">
-        <v>0.9408631401537662</v>
+        <v>0.9338029715731383</v>
       </c>
       <c r="J8">
-        <v>0.9408631401537663</v>
+        <v>0.9338029715731384</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>8.262912</v>
       </c>
       <c r="O8">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P8">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q8">
-        <v>92.15221513582932</v>
+        <v>92.15221513582935</v>
       </c>
       <c r="R8">
-        <v>829.369936222464</v>
+        <v>829.3699362224642</v>
       </c>
       <c r="S8">
-        <v>0.2572307351271418</v>
+        <v>0.255083635325936</v>
       </c>
       <c r="T8">
-        <v>0.257230735127142</v>
+        <v>0.255083635325936</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>33.45753233333333</v>
+        <v>33.45753233333334</v>
       </c>
       <c r="H9">
         <v>100.372597</v>
       </c>
       <c r="I9">
-        <v>0.9408631401537662</v>
+        <v>0.9338029715731383</v>
       </c>
       <c r="J9">
-        <v>0.9408631401537663</v>
+        <v>0.9338029715731384</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N9">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O9">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P9">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q9">
-        <v>7.671265691005222</v>
+        <v>19.01856622202767</v>
       </c>
       <c r="R9">
-        <v>69.041391219047</v>
+        <v>171.167095998249</v>
       </c>
       <c r="S9">
-        <v>0.02141332479251136</v>
+        <v>0.05264469230013816</v>
       </c>
       <c r="T9">
-        <v>0.02141332479251137</v>
+        <v>0.05264469230013816</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>33.45753233333333</v>
+        <v>33.45753233333334</v>
       </c>
       <c r="H10">
         <v>100.372597</v>
       </c>
       <c r="I10">
-        <v>0.9408631401537662</v>
+        <v>0.9338029715731383</v>
       </c>
       <c r="J10">
-        <v>0.9408631401537663</v>
+        <v>0.9338029715731384</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N10">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O10">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P10">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q10">
-        <v>8.889052952873888</v>
+        <v>12.34303015079478</v>
       </c>
       <c r="R10">
-        <v>80.001476575865</v>
+        <v>111.087271357153</v>
       </c>
       <c r="S10">
-        <v>0.02481261706277554</v>
+        <v>0.03416635180349789</v>
       </c>
       <c r="T10">
-        <v>0.02481261706277555</v>
+        <v>0.03416635180349789</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>33.45753233333333</v>
+        <v>33.45753233333334</v>
       </c>
       <c r="H11">
         <v>100.372597</v>
       </c>
       <c r="I11">
-        <v>0.9408631401537662</v>
+        <v>0.9338029715731383</v>
       </c>
       <c r="J11">
-        <v>0.9408631401537663</v>
+        <v>0.9338029715731384</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N11">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O11">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P11">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q11">
-        <v>7.188886142334</v>
+        <v>9.350287341110446</v>
       </c>
       <c r="R11">
-        <v>64.699975281006</v>
+        <v>84.15258606999402</v>
       </c>
       <c r="S11">
-        <v>0.02006682600534598</v>
+        <v>0.0258822349825988</v>
       </c>
       <c r="T11">
-        <v>0.02006682600534599</v>
+        <v>0.0258822349825988</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.07269733333333334</v>
+        <v>0.1582883333333333</v>
       </c>
       <c r="H12">
-        <v>0.218092</v>
+        <v>0.474865</v>
       </c>
       <c r="I12">
-        <v>0.002044330126901222</v>
+        <v>0.004417842731478576</v>
       </c>
       <c r="J12">
-        <v>0.002044330126901222</v>
+        <v>0.004417842731478576</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N12">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O12">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P12">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q12">
-        <v>0.4805423376911112</v>
+        <v>0.9674189850638888</v>
       </c>
       <c r="R12">
-        <v>4.32488103922</v>
+        <v>8.706770865574997</v>
       </c>
       <c r="S12">
-        <v>0.001341370455412301</v>
+        <v>0.002677881928607893</v>
       </c>
       <c r="T12">
-        <v>0.001341370455412302</v>
+        <v>0.002677881928607892</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.07269733333333334</v>
+        <v>0.1582883333333333</v>
       </c>
       <c r="H13">
-        <v>0.218092</v>
+        <v>0.474865</v>
       </c>
       <c r="I13">
-        <v>0.002044330126901222</v>
+        <v>0.004417842731478576</v>
       </c>
       <c r="J13">
-        <v>0.002044330126901222</v>
+        <v>0.004417842731478576</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>8.262912</v>
       </c>
       <c r="O13">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P13">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q13">
-        <v>0.2002305559893333</v>
+        <v>0.4359741896533333</v>
       </c>
       <c r="R13">
-        <v>1.802075003904</v>
+        <v>3.92376770688</v>
       </c>
       <c r="S13">
-        <v>0.0005589171463337609</v>
+        <v>0.001206806380520876</v>
       </c>
       <c r="T13">
-        <v>0.0005589171463337612</v>
+        <v>0.001206806380520876</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.07269733333333334</v>
+        <v>0.1582883333333333</v>
       </c>
       <c r="H14">
-        <v>0.218092</v>
+        <v>0.474865</v>
       </c>
       <c r="I14">
-        <v>0.002044330126901222</v>
+        <v>0.004417842731478576</v>
       </c>
       <c r="J14">
-        <v>0.002044330126901222</v>
+        <v>0.004417842731478576</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N14">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O14">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P14">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q14">
-        <v>0.01666831114355555</v>
+        <v>0.08997726191166668</v>
       </c>
       <c r="R14">
-        <v>0.150014800292</v>
+        <v>0.809795357205</v>
       </c>
       <c r="S14">
-        <v>4.652738865218749E-05</v>
+        <v>0.0002490632160200568</v>
       </c>
       <c r="T14">
-        <v>4.65273886521875E-05</v>
+        <v>0.0002490632160200568</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.07269733333333334</v>
+        <v>0.1582883333333333</v>
       </c>
       <c r="H15">
-        <v>0.218092</v>
+        <v>0.474865</v>
       </c>
       <c r="I15">
-        <v>0.002044330126901222</v>
+        <v>0.004417842731478576</v>
       </c>
       <c r="J15">
-        <v>0.002044330126901222</v>
+        <v>0.004417842731478576</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N15">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O15">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P15">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q15">
-        <v>0.01931434868222222</v>
+        <v>0.05839515154277778</v>
       </c>
       <c r="R15">
-        <v>0.17382913814</v>
+        <v>0.5255563638849999</v>
       </c>
       <c r="S15">
-        <v>5.391345289645981E-05</v>
+        <v>0.0001616417740906716</v>
       </c>
       <c r="T15">
-        <v>5.391345289645983E-05</v>
+        <v>0.0001616417740906716</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.07269733333333334</v>
+        <v>0.1582883333333333</v>
       </c>
       <c r="H16">
-        <v>0.218092</v>
+        <v>0.474865</v>
       </c>
       <c r="I16">
-        <v>0.002044330126901222</v>
+        <v>0.004417842731478576</v>
       </c>
       <c r="J16">
-        <v>0.002044330126901222</v>
+        <v>0.004417842731478576</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N16">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O16">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P16">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q16">
-        <v>0.015620185224</v>
+        <v>0.04423641841444445</v>
       </c>
       <c r="R16">
-        <v>0.140581667016</v>
+        <v>0.39812776573</v>
       </c>
       <c r="S16">
-        <v>4.360168360651181E-05</v>
+        <v>0.000122449432239078</v>
       </c>
       <c r="T16">
-        <v>4.360168360651182E-05</v>
+        <v>0.0001224494322390779</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4408796666666667</v>
+        <v>0.6500793333333333</v>
       </c>
       <c r="H17">
-        <v>1.322639</v>
+        <v>1.950238</v>
       </c>
       <c r="I17">
-        <v>0.01239802814736215</v>
+        <v>0.01814377722711363</v>
       </c>
       <c r="J17">
-        <v>0.01239802814736215</v>
+        <v>0.01814377722711363</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N17">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O17">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P17">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q17">
-        <v>2.914293220207223</v>
+        <v>3.973123448965555</v>
       </c>
       <c r="R17">
-        <v>26.228638981865</v>
+        <v>35.75811104068999</v>
       </c>
       <c r="S17">
-        <v>0.008134864542376937</v>
+        <v>0.0109978774950447</v>
       </c>
       <c r="T17">
-        <v>0.008134864542376939</v>
+        <v>0.01099787749504469</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4408796666666667</v>
+        <v>0.6500793333333333</v>
       </c>
       <c r="H18">
-        <v>1.322639</v>
+        <v>1.950238</v>
       </c>
       <c r="I18">
-        <v>0.01239802814736215</v>
+        <v>0.01814377722711363</v>
       </c>
       <c r="J18">
-        <v>0.01239802814736215</v>
+        <v>0.01814377722711363</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>8.262912</v>
       </c>
       <c r="O18">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P18">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q18">
-        <v>1.214316629418667</v>
+        <v>1.790516108117333</v>
       </c>
       <c r="R18">
-        <v>10.928849664768</v>
+        <v>16.114644973056</v>
       </c>
       <c r="S18">
-        <v>0.003389604458254953</v>
+        <v>0.004956271070586952</v>
       </c>
       <c r="T18">
-        <v>0.003389604458254955</v>
+        <v>0.004956271070586952</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.4408796666666667</v>
+        <v>0.6500793333333333</v>
       </c>
       <c r="H19">
-        <v>1.322639</v>
+        <v>1.950238</v>
       </c>
       <c r="I19">
-        <v>0.01239802814736215</v>
+        <v>0.01814377722711363</v>
       </c>
       <c r="J19">
-        <v>0.01239802814736215</v>
+        <v>0.01814377722711363</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N19">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O19">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P19">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q19">
-        <v>0.1010865065321111</v>
+        <v>0.3695304461606667</v>
       </c>
       <c r="R19">
-        <v>0.909778558789</v>
+        <v>3.325774015446</v>
       </c>
       <c r="S19">
-        <v>0.0002821696293286348</v>
+        <v>0.001022885553335208</v>
       </c>
       <c r="T19">
-        <v>0.0002821696293286348</v>
+        <v>0.001022885553335208</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.4408796666666667</v>
+        <v>0.6500793333333333</v>
       </c>
       <c r="H20">
-        <v>1.322639</v>
+        <v>1.950238</v>
       </c>
       <c r="I20">
-        <v>0.01239802814736215</v>
+        <v>0.01814377722711363</v>
       </c>
       <c r="J20">
-        <v>0.01239802814736215</v>
+        <v>0.01814377722711363</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N20">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O20">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P20">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q20">
-        <v>0.1171336446394445</v>
+        <v>0.2398248840291111</v>
       </c>
       <c r="R20">
-        <v>1.054202801755</v>
+        <v>2.158423956262</v>
       </c>
       <c r="S20">
-        <v>0.000326963095507954</v>
+        <v>0.000663851684624142</v>
       </c>
       <c r="T20">
-        <v>0.0003269630955079541</v>
+        <v>0.000663851684624142</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.4408796666666667</v>
+        <v>0.6500793333333333</v>
       </c>
       <c r="H21">
-        <v>1.322639</v>
+        <v>1.950238</v>
       </c>
       <c r="I21">
-        <v>0.01239802814736215</v>
+        <v>0.01814377722711363</v>
       </c>
       <c r="J21">
-        <v>0.01239802814736215</v>
+        <v>0.01814377722711363</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N21">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O21">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P21">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q21">
-        <v>0.09473005045800001</v>
+        <v>0.1816759377417778</v>
       </c>
       <c r="R21">
-        <v>0.8525704541220001</v>
+        <v>1.635083439676</v>
       </c>
       <c r="S21">
-        <v>0.0002644264218936649</v>
+        <v>0.0005028914235226325</v>
       </c>
       <c r="T21">
-        <v>0.000264426421893665</v>
+        <v>0.0005028914235226324</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.065122</v>
+        <v>0.285774</v>
       </c>
       <c r="H22">
-        <v>0.195366</v>
+        <v>0.8573219999999999</v>
       </c>
       <c r="I22">
-        <v>0.001831303301231517</v>
+        <v>0.007975980049564981</v>
       </c>
       <c r="J22">
-        <v>0.001831303301231517</v>
+        <v>0.007975980049564983</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N22">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O22">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P22">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q22">
-        <v>0.4304680334233333</v>
+        <v>1.74657972079</v>
       </c>
       <c r="R22">
-        <v>3.87421230081</v>
+        <v>15.71921748711</v>
       </c>
       <c r="S22">
-        <v>0.001201594649927919</v>
+        <v>0.004834652144921137</v>
       </c>
       <c r="T22">
-        <v>0.001201594649927919</v>
+        <v>0.004834652144921137</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.065122</v>
+        <v>0.285774</v>
       </c>
       <c r="H23">
-        <v>0.195366</v>
+        <v>0.8573219999999999</v>
       </c>
       <c r="I23">
-        <v>0.001831303301231517</v>
+        <v>0.007975980049564981</v>
       </c>
       <c r="J23">
-        <v>0.001831303301231517</v>
+        <v>0.007975980049564983</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>8.262912</v>
       </c>
       <c r="O23">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P23">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q23">
-        <v>0.179365785088</v>
+        <v>0.7871084712959999</v>
       </c>
       <c r="R23">
-        <v>1.614292065792</v>
+        <v>7.083976241664</v>
       </c>
       <c r="S23">
-        <v>0.0005006758946253945</v>
+        <v>0.002178770092049148</v>
       </c>
       <c r="T23">
-        <v>0.0005006758946253947</v>
+        <v>0.002178770092049149</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.065122</v>
+        <v>0.285774</v>
       </c>
       <c r="H24">
-        <v>0.195366</v>
+        <v>0.8573219999999999</v>
       </c>
       <c r="I24">
-        <v>0.001831303301231517</v>
+        <v>0.007975980049564981</v>
       </c>
       <c r="J24">
-        <v>0.001831303301231517</v>
+        <v>0.007975980049564983</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N24">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O24">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P24">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q24">
-        <v>0.01493141094066667</v>
+        <v>0.162445086786</v>
       </c>
       <c r="R24">
-        <v>0.134382698466</v>
+        <v>1.462005781074</v>
       </c>
       <c r="S24">
-        <v>4.167906118254343E-05</v>
+        <v>0.0004496591125577735</v>
       </c>
       <c r="T24">
-        <v>4.167906118254343E-05</v>
+        <v>0.0004496591125577736</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.065122</v>
+        <v>0.285774</v>
       </c>
       <c r="H25">
-        <v>0.195366</v>
+        <v>0.8573219999999999</v>
       </c>
       <c r="I25">
-        <v>0.001831303301231517</v>
+        <v>0.007975980049564981</v>
       </c>
       <c r="J25">
-        <v>0.001831303301231517</v>
+        <v>0.007975980049564983</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N25">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O25">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P25">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q25">
-        <v>0.01730172149666667</v>
+        <v>0.105426696242</v>
       </c>
       <c r="R25">
-        <v>0.15571549347</v>
+        <v>0.9488402661779999</v>
       </c>
       <c r="S25">
-        <v>4.829546997858595E-05</v>
+        <v>0.0002918283070914107</v>
       </c>
       <c r="T25">
-        <v>4.829546997858596E-05</v>
+        <v>0.0002918283070914108</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.065122</v>
+        <v>0.285774</v>
       </c>
       <c r="H26">
-        <v>0.195366</v>
+        <v>0.8573219999999999</v>
       </c>
       <c r="I26">
-        <v>0.001831303301231517</v>
+        <v>0.007975980049564981</v>
       </c>
       <c r="J26">
-        <v>0.001831303301231517</v>
+        <v>0.007975980049564983</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N26">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O26">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P26">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q26">
-        <v>0.013992503652</v>
+        <v>0.079864497716</v>
       </c>
       <c r="R26">
-        <v>0.125932532868</v>
+        <v>0.7187804794439999</v>
       </c>
       <c r="S26">
-        <v>3.905822551707437E-05</v>
+        <v>0.0002210703929455124</v>
       </c>
       <c r="T26">
-        <v>3.905822551707438E-05</v>
+        <v>0.0002210703929455125</v>
       </c>
     </row>
   </sheetData>
